--- a/docs/StructureDefinition-my-bundle.xlsx
+++ b/docs/StructureDefinition-my-bundle.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/my-bundle</t>
+    <t>http://example.org/ig/example/StructureDefinition/my-bundle</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T09:15:43-05:00</t>
+    <t>2023-04-26T11:15:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1168,7 +1168,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Patient {http://example.org/StructureDefinition/my-patient}
+    <t xml:space="preserve">Patient {http://example.org/ig/example/StructureDefinition/my-patient}
 </t>
   </si>
   <si>
@@ -1297,7 +1297,7 @@
 MeasurementResultsTests</t>
   </si>
   <si>
-    <t xml:space="preserve">Observation {http://example.org/StructureDefinition/my-observation}
+    <t xml:space="preserve">Observation {http://example.org/ig/example/StructureDefinition/my-observation}
 </t>
   </si>
   <si>
@@ -1425,7 +1425,7 @@
     <t>Bundle.entry:mydiagnosis.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Condition {http://example.org/StructureDefinition/my-diagnosis}
+    <t xml:space="preserve">Condition {http://example.org/ig/example/StructureDefinition/my-diagnosis}
 </t>
   </si>
   <si>
@@ -1867,7 +1867,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="64.03125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="74.88671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-my-bundle.xlsx
+++ b/docs/StructureDefinition-my-bundle.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.org/ig/example/StructureDefinition/my-bundle</t>
+    <t>http://example.org/ig/exampleig/StructureDefinition/my-bundle</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-26T11:15:05-05:00</t>
+    <t>2023-04-27T11:07:01-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1168,7 +1168,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Patient {http://example.org/ig/example/StructureDefinition/my-patient}
+    <t xml:space="preserve">Patient {http://example.org/ig/exampleig/StructureDefinition/my-patient}
 </t>
   </si>
   <si>
@@ -1297,7 +1297,7 @@
 MeasurementResultsTests</t>
   </si>
   <si>
-    <t xml:space="preserve">Observation {http://example.org/ig/example/StructureDefinition/my-observation}
+    <t xml:space="preserve">Observation {http://example.org/ig/exampleig/StructureDefinition/my-observation}
 </t>
   </si>
   <si>
@@ -1425,7 +1425,7 @@
     <t>Bundle.entry:mydiagnosis.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Condition {http://example.org/ig/example/StructureDefinition/my-diagnosis}
+    <t xml:space="preserve">Condition {http://example.org/ig/exampleig/StructureDefinition/my-diagnosis}
 </t>
   </si>
   <si>
@@ -1867,7 +1867,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="74.88671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="76.42578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-my-bundle.xlsx
+++ b/docs/StructureDefinition-my-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-27T11:07:01-05:00</t>
+    <t>2023-04-28T11:00:43-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-my-bundle.xlsx
+++ b/docs/StructureDefinition-my-bundle.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T11:00:43-05:00</t>
+    <t>2023-05-02T14:51:26-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
